--- a/docs/Backlog.xlsx
+++ b/docs/Backlog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>User Story</t>
   </si>
@@ -25,10 +25,13 @@
     <t>Zuordnung Gruppenmitglied</t>
   </si>
   <si>
-    <t>Als potenzieller Benutzer möchte ich mich mit einem, Benutzernamen, einer E-Mail-Adresse und einem Passwort registrieren können, um Steam nutzen zu können.</t>
-  </si>
-  <si>
-    <t>hoch</t>
+    <t>Als Benutzer möchte ich neue Serien mit Titel, Anzahl der Staffeln, Genre und Streaming-Plattform hinzufügen können, um meine Sammlung zu erweitern.</t>
+  </si>
+  <si>
+    <t>Zeinab Barakat</t>
+  </si>
+  <si>
+    <t>Als potenzieller Benutzer möchte ich mich mit einem Benutzernamen, einer E-Mail-Adresse und einem Passwort registrieren können, um Steam nutzen zu können.</t>
   </si>
   <si>
     <t>Hilal Cubukcu</t>
@@ -37,43 +40,34 @@
     <t xml:space="preserve">Als registrierter Benutzer möchte ich mich mit meiner E-Mail-Adresse und einem Passwort anmelden können, um Zugriff auf mein Serienprofil zu erhalten. </t>
   </si>
   <si>
+    <t>Als Benutzer möchte ich nach Serien anhand ihres Titels suchen können, um schnell zu einer bestimmten Serie navigieren zu können.</t>
+  </si>
+  <si>
+    <t>Yudum Yilmaz</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich die Möglichkeit haben, meine Suche nach Serien durch Filtern nach Anfangsbuchstaben, Genre und Plattform zu verfeinern, um Serien basierend auf meinen Präferenzen leichter finden zu können.</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich meine Seriensammlung angezeigt bekommen, sobald ich mich erfolgreich angemeldet habe, um einen Überblick über meine bereits gespeicherten Serien zu haben.</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich  Serien aus meiner Sammlung entfernen können, wenn ich sie nicht mehr schauen möchte.</t>
+  </si>
+  <si>
     <t>Als Benutzer möchte ich eine Fehlermeldung erhalten, wenn ich versuche, mich mit ungültigen Anmeldeinformationen anzumelden, um mein Konto zu schützen.</t>
   </si>
   <si>
-    <t>Als Benutzer möchte ich meine Seriensammlung angezeigt bekommen, sobald ich mich erfolgreich angemeldet habe, um einen Überblick über meine bereits gespeicherten Serien zu haben.</t>
-  </si>
-  <si>
-    <t>Zeinab Barakat</t>
-  </si>
-  <si>
-    <t>Als Benutzer möchte ich neue Serien mit Titel, Anzahl der Staffeln, Genre und Streaming-Plattform hinzufügen können, um meine Sammlung zu erweitern.</t>
-  </si>
-  <si>
-    <t>Als Benutzer möchte ich die Möglichkeit haben, Serien aus meiner Sammlung zu bearbeiten wenn ich beispielsweise eine fehlerhafte Information eingegeben habe.</t>
-  </si>
-  <si>
-    <t>Als Benutzer möchte ich  Serien aus meiner Sammlung entfernen können, wenn ich sie nicht mehr schauen möchte.</t>
-  </si>
-  <si>
-    <t>Als Benutzer möchte ich nach Serien anhand ihres Titels suchen können, um schnell zu einer bestimmten Serie navigieren zu können.</t>
-  </si>
-  <si>
-    <t>Yudum Yilmaz</t>
-  </si>
-  <si>
-    <t>Als Benutzer möchte ich die Möglichkeit haben, meine Suche nach Serien durch Filtern nach Anfangsbuchstaben, Genre und Plattform zu verfeinern, um Serien basierend auf meinen Präferenzen leichter finden zu können.</t>
+    <t>Als Benutzer möchte ich mein Passwort ändern können, um die Sicherheit meines Kontos zu gewährleisten.</t>
+  </si>
+  <si>
+    <t>Melisa Rosic Emira</t>
+  </si>
+  <si>
+    <t>Als Benutzer möchte ich mein Profil bearbeiten können, um Informationen wie meinen Benutzernamen, mein Passwort, meine E-Mail-Adresse oder mein Profilbild zu aktualisieren.</t>
   </si>
   <si>
     <t>Als Benutzer möchte ich mein Profil anzeigen können, um meine persönlichen Informationen und Einstellungen einzusehen und zu bearbeiten.</t>
-  </si>
-  <si>
-    <t>Melisa Rosic Emira</t>
-  </si>
-  <si>
-    <t>Als Benutzer möchte ich mein Passwort ändern können, um die Sicherheit meines Kontos zu gewährleisten.</t>
-  </si>
-  <si>
-    <t>Als Benutzer möchte ich mein Profil bearbeiten können, um Informationen wie meinen Benutzernamen, mein Passwort, meine E-Mail-Adresse oder mein Profilbild zu aktualisieren.</t>
   </si>
 </sst>
 </file>
@@ -98,25 +92,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFc7bff7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFf1c1c1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFcdf3ea"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -130,34 +154,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,15 +500,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="50.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="30.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="50.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="30.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -479,129 +518,140 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="60">
-      <c r="A2" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="44.25">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="44.25">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="46.5">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="44.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="44.25">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="57">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="60">
-      <c r="A4" s="3" t="s">
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="57">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="31.5">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5">
         <v>7</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="60">
-      <c r="A5" s="3" t="s">
+      <c r="C8" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="44.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
         <v>8</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5" t="s">
+      <c r="C9" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="31.5">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="46.5">
-      <c r="A6" s="3" t="s">
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="44.25">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5">
         <v>10</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="60">
-      <c r="A7" s="3" t="s">
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="44.25">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5">
         <v>11</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="46.5">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="46.5">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="73.5">
-      <c r="A10" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="46.5">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="60">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="7">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="7">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="A13" s="4"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="9">
+      <c r="A14" s="4"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
